--- a/biology/Biochimie/Victor_Percy_Whittaker/Victor_Percy_Whittaker.xlsx
+++ b/biology/Biochimie/Victor_Percy_Whittaker/Victor_Percy_Whittaker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Percy Whittaker né le 11 juin 1919 à Southport et mort le 5 juillet 2016 à Cambridge est un biochimiste britannique.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Whittaker est né à Ainsdale, un quartier de Southport. Il a étudié la chimie et la biochimie à l'université d'Oxford, où il a obtenu son doctorat en 1945. 
 Il devient par la suite chargé de cours dans la même université, jusqu'en 1951, date de son départ aux États-Unis pour travailler comme assistant professor à l'université de Cincinnati, poste qu'il occupe jusqu'en 1955.
 En 1966, il est lecteur à l'université de Cambridge et directeur de recherche à l'Institut de l'État de New York pour la recherche fondamentale sur le retard mental et professeur invité à l'université de la ville de New York.
-De 1973 à 1987, il est directeur et chef du département de neurochimie à l'institut Max-Planck de Göttingen. Par la suite il prend sa retraite, mais continue la recherche en tant qu'émérite, à l'institut Max-Planck et à l'université de Mayence. Il meurt à Cambridge en juillet 2016[1].
+De 1973 à 1987, il est directeur et chef du département de neurochimie à l'institut Max-Planck de Göttingen. Par la suite il prend sa retraite, mais continue la recherche en tant qu'émérite, à l'institut Max-Planck et à l'université de Mayence. Il meurt à Cambridge en juillet 2016.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Victor Whittaker a beaucoup travaillé sur la réponse cholinergique. Il a poursuivi et approfondi les recherches sur la raie torpille, organisme modèle intéressant en raison de son organe électrique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Victor Whittaker a beaucoup travaillé sur la réponse cholinergique. Il a poursuivi et approfondi les recherches sur la raie torpille, organisme modèle intéressant en raison de son organe électrique.
 </t>
         </is>
       </c>
